--- a/assets uarm/2023 2 UarmPCrit/tesis docs/MetodosInvestigación-CoEvaluación - Fernando García.xlsx
+++ b/assets uarm/2023 2 UarmPCrit/tesis docs/MetodosInvestigación-CoEvaluación - Fernando García.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>Expositor</t>
   </si>
@@ -66,13 +66,25 @@
   </si>
   <si>
     <t>Excelente</t>
+  </si>
+  <si>
+    <t>Rubén Tay</t>
+  </si>
+  <si>
+    <t>Ebelyn Caballero</t>
+  </si>
+  <si>
+    <t>Glenn Encinas</t>
+  </si>
+  <si>
+    <t>Lissette Rocío</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +102,13 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -201,39 +220,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -254,29 +261,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,7 +586,7 @@
   <dimension ref="B2:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,420 +604,480 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="21" t="s">
+      <c r="E2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="24"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="25">
+      <c r="B4" s="25"/>
+      <c r="C4" s="20">
         <v>2</v>
       </c>
-      <c r="D4" s="26">
-        <v>3</v>
-      </c>
-      <c r="E4" s="26">
-        <v>3</v>
-      </c>
-      <c r="F4" s="26">
+      <c r="D4" s="21">
+        <v>3</v>
+      </c>
+      <c r="E4" s="21">
+        <v>3</v>
+      </c>
+      <c r="F4" s="21">
         <v>2</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="21">
         <v>2</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="29">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="30"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="24"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="25">
+      <c r="B7" s="25"/>
+      <c r="C7" s="20">
         <v>2</v>
       </c>
-      <c r="D7" s="26">
-        <v>3</v>
-      </c>
-      <c r="E7" s="26">
-        <v>3</v>
-      </c>
-      <c r="F7" s="26">
+      <c r="D7" s="21">
+        <v>3</v>
+      </c>
+      <c r="E7" s="21">
+        <v>3</v>
+      </c>
+      <c r="F7" s="21">
         <v>2</v>
       </c>
-      <c r="G7" s="26">
-        <v>3</v>
-      </c>
-      <c r="H7" s="27">
+      <c r="G7" s="21">
+        <v>3</v>
+      </c>
+      <c r="H7" s="29">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="30"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="24"/>
+      <c r="H9" s="28"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="25">
-        <v>4</v>
-      </c>
-      <c r="D10" s="26">
-        <v>4</v>
-      </c>
-      <c r="E10" s="26">
-        <v>4</v>
-      </c>
-      <c r="F10" s="26">
-        <v>3</v>
-      </c>
-      <c r="G10" s="26">
-        <v>4</v>
-      </c>
-      <c r="H10" s="27">
+      <c r="B10" s="25"/>
+      <c r="C10" s="20">
+        <v>4</v>
+      </c>
+      <c r="D10" s="21">
+        <v>4</v>
+      </c>
+      <c r="E10" s="21">
+        <v>4</v>
+      </c>
+      <c r="F10" s="21">
+        <v>3</v>
+      </c>
+      <c r="G10" s="21">
+        <v>4</v>
+      </c>
+      <c r="H10" s="29">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="30"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="24"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="25">
-        <v>3</v>
-      </c>
-      <c r="D13" s="26">
-        <v>4</v>
-      </c>
-      <c r="E13" s="26">
-        <v>4</v>
-      </c>
-      <c r="F13" s="26">
-        <v>3</v>
-      </c>
-      <c r="G13" s="26">
-        <v>3</v>
-      </c>
-      <c r="H13" s="27">
+      <c r="B13" s="25"/>
+      <c r="C13" s="20">
+        <v>3</v>
+      </c>
+      <c r="D13" s="21">
+        <v>4</v>
+      </c>
+      <c r="E13" s="21">
+        <v>4</v>
+      </c>
+      <c r="F13" s="21">
+        <v>3</v>
+      </c>
+      <c r="G13" s="21">
+        <v>3</v>
+      </c>
+      <c r="H13" s="29">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="30"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="32"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="33"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
+      <c r="B18" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="4">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5">
+        <v>4</v>
+      </c>
+      <c r="E19" s="5">
+        <v>4</v>
+      </c>
+      <c r="F19" s="26">
+        <v>2</v>
+      </c>
+      <c r="G19" s="26">
+        <v>3</v>
+      </c>
+      <c r="H19" s="32">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="33"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
+      <c r="B21" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="31"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="4">
+        <v>4</v>
+      </c>
+      <c r="D22" s="5">
+        <v>4</v>
+      </c>
+      <c r="E22" s="5">
+        <v>4</v>
+      </c>
+      <c r="F22" s="26">
+        <v>3</v>
+      </c>
+      <c r="G22" s="26">
+        <v>3</v>
+      </c>
+      <c r="H22" s="32">
+        <v>18</v>
+      </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="33"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
+      <c r="B24" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="31"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="4">
+        <v>3</v>
+      </c>
+      <c r="D25" s="5">
+        <v>3</v>
+      </c>
+      <c r="E25" s="5">
+        <v>3</v>
+      </c>
+      <c r="F25" s="26">
+        <v>3</v>
+      </c>
+      <c r="G25" s="26">
+        <v>2</v>
+      </c>
+      <c r="H25" s="32">
+        <v>14</v>
+      </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="33"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14"/>
+      <c r="B27" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="31"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2</v>
+      </c>
+      <c r="F28" s="26">
+        <v>1</v>
+      </c>
+      <c r="G28" s="26">
+        <v>2</v>
+      </c>
+      <c r="H28" s="32">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="33"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="14"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="16"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="14"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="10"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="13"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="20"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="B21:B23"/>
@@ -1000,10 +1085,6 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
